--- a/Excel/Dec20.xlsx
+++ b/Excel/Dec20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\23_DS_Club2_AU\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E334B19-5853-46CB-9FA5-962F2EC73EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690A25B2-C252-4748-8B35-DB94DDB4F0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Creating Dropdown Menu</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Lit Rate</t>
+  </si>
+  <si>
+    <t>Parameter:</t>
+  </si>
+  <si>
+    <t>Value:</t>
   </si>
 </sst>
 </file>
@@ -205,9 +211,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,10 +793,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DBF527-FE80-4991-AF52-348C10A03151}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,12 +805,14 @@
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="4.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
@@ -821,8 +829,12 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -841,12 +853,20 @@
       <c r="G2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2" s="7"/>
+      <c r="L2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -862,16 +882,24 @@
         <v>39</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <f>VLOOKUP($H$2, $A$1:$D$11, 2, FALSE)</f>
         <v>26</v>
       </c>
       <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3" s="7"/>
+      <c r="L3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -887,16 +915,22 @@
         <v>44</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <f>VLOOKUP($H$2, $A$1:$D$11, 3, FALSE)</f>
         <v>70</v>
       </c>
       <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4" s="7"/>
+      <c r="L4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -912,16 +946,20 @@
         <v>130</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <f>VLOOKUP($H$2, $A$1:$D$11, 4, FALSE)</f>
         <v>44</v>
       </c>
       <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -940,8 +978,12 @@
       <c r="G6" s="8"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -956,10 +998,8 @@
         <f>VLOOKUP(A7, 'Literacy rate'!$A$1:$C$11, 3, FALSE)</f>
         <v>49</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -975,7 +1015,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -990,8 +1030,12 @@
         <f>VLOOKUP(A9, 'Literacy rate'!$A$1:$C$11, 3, FALSE)</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1006,8 +1050,16 @@
         <f>VLOOKUP(A10, 'Literacy rate'!$A$1:$C$11, 3, FALSE)</f>
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F10" s="7"/>
+      <c r="G10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1022,11 +1074,128 @@
         <f>VLOOKUP(A11, 'Literacy rate'!$A$1:$C$11, 3, FALSE)</f>
         <v>74</v>
       </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="9">
+        <f>HLOOKUP($H$10, $A$1:$D$11, 2, FALSE)</f>
+        <v>143</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="9">
+        <f>HLOOKUP($H$10, $A$1:$D$11, 3, FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="9">
+        <f>HLOOKUP($H$10, $A$1:$D$11, 4, FALSE)</f>
+        <v>44</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="9">
+        <f>HLOOKUP($H$10, $A$1:$D$11, 5, FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="9">
+        <f>HLOOKUP($H$10, $A$1:$D$11, 6, FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="9">
+        <f>HLOOKUP($H$10, $A$1:$D$11, 7, FALSE)</f>
+        <v>49</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="9">
+        <f>HLOOKUP($H$10, $A$1:$D$11, 8, FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="9">
+        <f>HLOOKUP($H$10, $A$1:$D$11, 9, FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="9">
+        <f>HLOOKUP($H$10, $A$1:$D$11, 10, FALSE)</f>
+        <v>88</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="9">
+        <f>HLOOKUP($H$10, $A$1:$D$11, 11, FALSE)</f>
+        <v>74</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{A0431838-6596-4546-8AE3-FEAA725B43B1}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 M2" xr:uid="{A0431838-6596-4546-8AE3-FEAA725B43B1}">
       <formula1>$A$2:$A$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3 H10" xr:uid="{993B196D-CAA0-43F5-9100-80853105C1CF}">
+      <formula1>$B$1:$D$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Dec20.xlsx
+++ b/Excel/Dec20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\23_DS_Club2_AU\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690A25B2-C252-4748-8B35-DB94DDB4F0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95218A1-DB86-4435-8030-C5BDB9D8535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>Creating Dropdown Menu</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>Value:</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>MATCH</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Cannot Enter a 2D array in Match</t>
   </si>
 </sst>
 </file>
@@ -199,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -212,8 +224,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,7 +806,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,8 +871,8 @@
       <c r="L2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>19</v>
+      <c r="M2" t="s">
+        <v>17</v>
       </c>
       <c r="N2" s="7"/>
     </row>
@@ -894,8 +904,8 @@
       <c r="L3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>26</v>
+      <c r="M3" t="s">
+        <v>27</v>
       </c>
       <c r="N3" s="7"/>
     </row>
@@ -927,7 +937,10 @@
       <c r="L4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="10"/>
+      <c r="M4">
+        <f>INDEX(A1:D11, MATCH(M2, A1:A11, 0), MATCH(M3, A1:D1, 0))</f>
+        <v>130</v>
+      </c>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -956,7 +969,7 @@
       <c r="I5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="11"/>
+      <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1014,6 +1027,16 @@
         <f>VLOOKUP(A8, 'Literacy rate'!$A$1:$C$11, 3, FALSE)</f>
         <v>56</v>
       </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="str">
+        <f>INDEX(A1:A11, 5)</f>
+        <v>Surat</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1034,6 +1057,13 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
+      <c r="M9" t="str">
+        <f>INDEX(A1:D1, 3)</f>
+        <v>Literacy Rate</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1058,6 +1088,10 @@
         <v>27</v>
       </c>
       <c r="I10" s="7"/>
+      <c r="M10">
+        <f>INDEX(A1:D11, 5, 3)</f>
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1094,6 +1128,16 @@
         <v>39</v>
       </c>
       <c r="I12" s="7"/>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12">
+        <f>MATCH(M2, A1:A11, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F13" s="7"/>
@@ -1105,6 +1149,13 @@
         <v>44</v>
       </c>
       <c r="I13" s="7"/>
+      <c r="M13">
+        <f>MATCH(M3, A1:D1, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" s="7"/>
@@ -1116,6 +1167,13 @@
         <v>130</v>
       </c>
       <c r="I14" s="7"/>
+      <c r="M14" t="e">
+        <f>MATCH(M2, A1:D11, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F15" s="7"/>
